--- a/public/assets/exampleExcel.xlsx
+++ b/public/assets/exampleExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nico/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{419CF3B5-E683-4E47-9F84-BED5350E3A49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381E82E6-3CD9-0443-A1F6-6A131F6916AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7340" yWindow="500" windowWidth="28240" windowHeight="15800" xr2:uid="{4D58546D-7F04-E240-8810-571B7C13BD08}"/>
+    <workbookView xWindow="560" yWindow="500" windowWidth="28240" windowHeight="15800" xr2:uid="{4D58546D-7F04-E240-8810-571B7C13BD08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>first_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,14 @@
   </si>
   <si>
     <t>ZZZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4647E25-B6C8-E643-B16D-FC2B0A5931F9}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -447,6 +455,17 @@
         <v>777777777</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>888888888</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
